--- a/Data/LockerSignature.xlsx
+++ b/Data/LockerSignature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>IM2316800002</t>
+  </si>
+  <si>
+    <t>IM2319400503</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +129,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LockerSignature.xlsx
+++ b/Data/LockerSignature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>IM2319400503</t>
+  </si>
+  <si>
+    <t>IM2325000001</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -134,6 +137,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LockerSignature.xlsx
+++ b/Data/LockerSignature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>IM2325000001</t>
+  </si>
+  <si>
+    <t>IM2325000002</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,6 +145,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LockerSignature.xlsx
+++ b/Data/LockerSignature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>IM2325000002</t>
+  </si>
+  <si>
+    <t>IM2325000686</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,6 +153,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
